--- a/基本設計/基本設計書.xlsx
+++ b/基本設計/基本設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" firstSheet="13" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -1909,6 +1909,36 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1980,36 +2010,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6456,7 +6456,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6489,10 +6489,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="41.4" x14ac:dyDescent="0.2">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="45"/>
+      <c r="C10" s="55"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -6923,7 +6923,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J40"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7729,7 +7729,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G25"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7932,7 +7932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
@@ -7993,135 +7993,135 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="31"/>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="75"/>
       <c r="H8" s="32"/>
       <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="31"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="78"/>
       <c r="H9" s="32"/>
       <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="31"/>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="57"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
       <c r="H10" s="32"/>
       <c r="I10" s="27"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="31"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="70"/>
       <c r="H11" s="32"/>
       <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="31"/>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="57"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="32"/>
       <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="31"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="70"/>
       <c r="H13" s="32"/>
       <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="31"/>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="57"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="67"/>
       <c r="H14" s="32"/>
       <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="31"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
       <c r="H15" s="32"/>
       <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="31"/>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="57"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="67"/>
       <c r="H16" s="32"/>
       <c r="I16" s="27"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="31"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="70"/>
       <c r="H17" s="32"/>
       <c r="I17" s="27"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="31"/>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="57"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="67"/>
       <c r="H18" s="32"/>
       <c r="I18" s="27"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="31"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="60"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="70"/>
       <c r="H19" s="32"/>
       <c r="I19" s="27"/>
     </row>
@@ -8200,11 +8200,11 @@
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="31"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="73"/>
-      <c r="F27" s="74"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="37"/>
       <c r="H27" s="32"/>
       <c r="I27" s="27"/>
@@ -8212,11 +8212,11 @@
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="31"/>
       <c r="C28" s="32"/>
-      <c r="D28" s="70" t="s">
+      <c r="D28" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="37"/>
       <c r="H28" s="32"/>
       <c r="I28" s="27"/>
@@ -8224,11 +8224,11 @@
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="31"/>
       <c r="C29" s="32"/>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="75"/>
-      <c r="F29" s="76"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="52"/>
       <c r="G29" s="37"/>
       <c r="H29" s="32"/>
       <c r="I29" s="27"/>
@@ -8236,11 +8236,11 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="31"/>
       <c r="C30" s="32"/>
-      <c r="D30" s="71" t="s">
+      <c r="D30" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="75"/>
-      <c r="F30" s="76"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="52"/>
       <c r="G30" s="37"/>
       <c r="H30" s="32"/>
       <c r="I30" s="27"/>
@@ -8248,11 +8248,11 @@
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="31"/>
       <c r="C31" s="32"/>
-      <c r="D31" s="70" t="s">
+      <c r="D31" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="75"/>
-      <c r="F31" s="76"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="52"/>
       <c r="G31" s="37"/>
       <c r="H31" s="32"/>
       <c r="I31" s="27"/>
@@ -8260,11 +8260,11 @@
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="31"/>
       <c r="C32" s="32"/>
-      <c r="D32" s="70" t="s">
+      <c r="D32" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="75"/>
-      <c r="F32" s="76"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="52"/>
       <c r="G32" s="37"/>
       <c r="H32" s="32"/>
       <c r="I32" s="27"/>
@@ -8272,11 +8272,11 @@
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="31"/>
       <c r="C33" s="32"/>
-      <c r="D33" s="72" t="s">
+      <c r="D33" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="77"/>
-      <c r="F33" s="78"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="54"/>
       <c r="G33" s="38"/>
       <c r="H33" s="32"/>
       <c r="I33" s="27"/>
@@ -8357,7 +8357,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I30"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -8655,7 +8655,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E23"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -8800,7 +8800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -9212,7 +9212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -9348,7 +9348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -9380,7 +9380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -9421,15 +9421,15 @@
     </row>
     <row r="7" spans="1:11" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="64"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
@@ -9491,13 +9491,13 @@
     </row>
     <row r="14" spans="1:11" ht="110.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -9520,13 +9520,13 @@
     </row>
     <row r="17" spans="1:8" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -10962,7 +10962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>

--- a/基本設計/基本設計書.xlsx
+++ b/基本設計/基本設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" firstSheet="13" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="139">
   <si>
     <t>作成日：6月10日</t>
     <rPh sb="0" eb="3">
@@ -608,22 +608,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇〇〇さん、11問中●問正解でした！</t>
-    <rPh sb="8" eb="9">
-      <t>モン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>モン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セイカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新規登録画面レイアウト</t>
     <rPh sb="0" eb="6">
       <t>シンキトウロクガメン</t>
@@ -915,13 +899,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>該当アカウント</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メールアドレス</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1242,6 +1219,39 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>モン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇〇さん、10問中●問正解でした！</t>
+    <rPh sb="8" eb="9">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント検索</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当アカウントが見つかりました。こちらですか？</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1773,7 +1783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2010,6 +2020,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6455,7 +6468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -6641,7 +6654,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="B4" sqref="B4:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6693,7 +6706,7 @@
       <c r="B8" s="25"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -6922,20 +6935,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -6959,7 +6972,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
@@ -6995,7 +7008,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="31"/>
       <c r="C9" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
@@ -7030,7 +7043,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="31"/>
       <c r="C12" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
@@ -7135,7 +7148,7 @@
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="31"/>
       <c r="C21" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
@@ -7170,11 +7183,11 @@
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="31"/>
       <c r="C24" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
@@ -7196,7 +7209,7 @@
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="31"/>
       <c r="C26" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -7231,7 +7244,7 @@
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="31"/>
       <c r="C29" s="32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
@@ -7244,7 +7257,7 @@
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="31"/>
       <c r="C30" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
@@ -7375,20 +7388,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -7408,7 +7421,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
@@ -7419,7 +7432,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="42"/>
@@ -7430,7 +7443,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
@@ -7460,7 +7473,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="31"/>
       <c r="C11" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="32" t="s">
@@ -7482,11 +7495,11 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="31"/>
       <c r="C13" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
@@ -7508,7 +7521,7 @@
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
@@ -7526,11 +7539,11 @@
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="31"/>
       <c r="C17" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
@@ -7552,7 +7565,7 @@
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
@@ -7570,11 +7583,11 @@
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="31"/>
       <c r="C21" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
@@ -7592,11 +7605,11 @@
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="31"/>
       <c r="C23" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
@@ -7614,7 +7627,7 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="31"/>
       <c r="C25" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="36">
@@ -7729,19 +7742,19 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="B4" sqref="B4:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -7768,7 +7781,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="25"/>
       <c r="C7" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -7802,7 +7815,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="25"/>
       <c r="C11" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -7932,8 +7945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7944,12 +7957,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -7971,7 +7984,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
@@ -7994,7 +8007,7 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="31"/>
       <c r="C8" s="71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="73"/>
       <c r="E8" s="74"/>
@@ -8016,7 +8029,7 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="31"/>
       <c r="C10" s="71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="65"/>
       <c r="E10" s="66"/>
@@ -8082,10 +8095,10 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="31"/>
       <c r="C16" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" s="66"/>
       <c r="F16" s="66"/>
@@ -8106,7 +8119,7 @@
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="31"/>
       <c r="C18" s="71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="65"/>
       <c r="E18" s="66"/>
@@ -8178,7 +8191,7 @@
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="31"/>
       <c r="C25" s="32" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -8201,7 +8214,7 @@
       <c r="B27" s="31"/>
       <c r="C27" s="32"/>
       <c r="D27" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -8213,7 +8226,7 @@
       <c r="B28" s="31"/>
       <c r="C28" s="32"/>
       <c r="D28" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28" s="51"/>
       <c r="F28" s="52"/>
@@ -8237,7 +8250,7 @@
       <c r="B30" s="31"/>
       <c r="C30" s="32"/>
       <c r="D30" s="47" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E30" s="51"/>
       <c r="F30" s="52"/>
@@ -8249,7 +8262,7 @@
       <c r="B31" s="31"/>
       <c r="C31" s="32"/>
       <c r="D31" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E31" s="51"/>
       <c r="F31" s="52"/>
@@ -8261,7 +8274,7 @@
       <c r="B32" s="31"/>
       <c r="C32" s="32"/>
       <c r="D32" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E32" s="51"/>
       <c r="F32" s="52"/>
@@ -8273,7 +8286,7 @@
       <c r="B33" s="31"/>
       <c r="C33" s="32"/>
       <c r="D33" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E33" s="53"/>
       <c r="F33" s="54"/>
@@ -8357,19 +8370,19 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -8390,7 +8403,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="31"/>
       <c r="C6" s="41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D6" s="42"/>
       <c r="E6" s="42"/>
@@ -8401,7 +8414,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="31"/>
       <c r="C7" s="42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D7" s="42"/>
       <c r="E7" s="42"/>
@@ -8430,7 +8443,7 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="31"/>
       <c r="C10" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15" t="s">
@@ -8452,11 +8465,11 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="31"/>
       <c r="C12" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -8478,7 +8491,7 @@
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -8496,11 +8509,11 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="31"/>
       <c r="C16" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
@@ -8518,11 +8531,11 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="31"/>
       <c r="C18" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
@@ -8540,11 +8553,11 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="31"/>
       <c r="C20" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
@@ -8655,19 +8668,19 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B4" sqref="B4:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -8693,7 +8706,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -8800,20 +8813,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -8836,7 +8849,7 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="25"/>
       <c r="C6" s="41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -8868,7 +8881,7 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="25"/>
       <c r="C9" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -8900,7 +8913,7 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="25"/>
       <c r="C12" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -8964,7 +8977,7 @@
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="25"/>
       <c r="C18" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
@@ -9008,7 +9021,7 @@
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="25"/>
       <c r="C22" s="40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -9040,14 +9053,14 @@
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="25"/>
       <c r="C25" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -9066,11 +9079,11 @@
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="25"/>
       <c r="C27" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -9090,7 +9103,7 @@
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="25"/>
       <c r="C29" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="39">
@@ -9212,20 +9225,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -9239,7 +9252,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -9266,7 +9279,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="31"/>
       <c r="C10" s="41" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="34"/>
@@ -9348,8 +9361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A4" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -9380,15 +9393,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -9481,7 +9494,7 @@
     <row r="13" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9492,7 +9505,7 @@
     <row r="14" spans="1:11" ht="110.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D14" s="57"/>
       <c r="E14" s="57"/>
@@ -9521,7 +9534,7 @@
     <row r="17" spans="1:8" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D17" s="60"/>
       <c r="E17" s="60"/>
@@ -9674,7 +9687,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -9752,7 +9765,7 @@
       <c r="B9" s="25"/>
       <c r="C9" s="26"/>
       <c r="D9" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
@@ -9790,7 +9803,7 @@
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
       <c r="D12" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
@@ -9828,7 +9841,7 @@
       <c r="B15" s="25"/>
       <c r="C15" s="26"/>
       <c r="D15" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
@@ -9952,9 +9965,11 @@
       <c r="B25" s="25"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="E25" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
@@ -9964,9 +9979,9 @@
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
       <c r="J26" s="26"/>
@@ -10009,6 +10024,9 @@
       <c r="K29" s="30"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E25:G26"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10021,7 +10039,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G28"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -10065,7 +10083,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
@@ -10074,7 +10092,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
@@ -10221,8 +10239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:J38"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -10658,8 +10676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:I32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -10962,8 +10980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -11336,8 +11354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/基本設計/基本設計書.xlsx
+++ b/基本設計/基本設計書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\設計書\基本設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\workspace\workspace-shibata\design-for-English_test\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" firstSheet="13" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="140">
   <si>
     <t>作成日：6月10日</t>
     <rPh sb="0" eb="3">
@@ -1253,6 +1253,10 @@
     <rPh sb="8" eb="9">
       <t>ミ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1979,6 +1983,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2020,9 +2027,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7945,7 +7949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C25" sqref="C25:F25"/>
     </sheetView>
   </sheetViews>
@@ -8006,135 +8010,135 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="31"/>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="75"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="76"/>
       <c r="H8" s="32"/>
       <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="31"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="78"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
       <c r="H9" s="32"/>
       <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="31"/>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
       <c r="H10" s="32"/>
       <c r="I10" s="27"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="31"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="70"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="32"/>
       <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="31"/>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
       <c r="H12" s="32"/>
       <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="31"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="70"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="32"/>
       <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="31"/>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="67"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="68"/>
       <c r="H14" s="32"/>
       <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="31"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="71"/>
       <c r="H15" s="32"/>
       <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="31"/>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="32"/>
       <c r="I16" s="27"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="31"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="70"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="32"/>
       <c r="I17" s="27"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="31"/>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="67"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="68"/>
       <c r="H18" s="32"/>
       <c r="I18" s="27"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="31"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="70"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="32"/>
       <c r="I19" s="27"/>
     </row>
@@ -9223,20 +9227,20 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="22" t="s">
         <v>131</v>
       </c>
@@ -9244,13 +9248,13 @@
       <c r="D4" s="23"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="31"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="34"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="31" t="s">
         <v>132</v>
       </c>
@@ -9258,25 +9262,28 @@
       <c r="D6" s="15"/>
       <c r="E6" s="34"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="31"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="34"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="31"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="34"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="31"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="34"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="31"/>
       <c r="C10" s="41" t="s">
         <v>133</v>
@@ -9284,37 +9291,37 @@
       <c r="D10" s="15"/>
       <c r="E10" s="34"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="31"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="34"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
       <c r="E12" s="27"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="25"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="E13" s="27"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="25"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="25"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="27"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="25"/>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
@@ -9965,11 +9972,11 @@
       <c r="B25" s="25"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
-      <c r="E25" s="79" t="s">
+      <c r="E25" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
@@ -9979,9 +9986,9 @@
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
       <c r="J26" s="26"/>
